--- a/Archivos/Captura Cliente Ejemplo.xlsx
+++ b/Archivos/Captura Cliente Ejemplo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JFROJAS\Desktop\PARSER\Thea\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumnouaemex-my.sharepoint.com/personal/jrojasf001_alumno_uaemex_mx/Documents/Desktop/Parser/ParserThea/Archivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6015BB-5C16-4BF0-9C69-E2E0F992B5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,6 +2495,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010053322F5F9C39FD4A8AC1A15F8299F276" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fd3ac0f52014f6e043e99a0e3528422">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d3517456-5d6c-4611-b3b6-6d7825f7251d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e347fb032630692561d88103dfe3214" ns3:_="">
     <xsd:import namespace="d3517456-5d6c-4611-b3b6-6d7825f7251d"/>
@@ -2626,22 +2641,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{119CBA1E-5BAE-4F73-AED9-DF6E59155C4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="d3517456-5d6c-4611-b3b6-6d7825f7251d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39840C9-3BE1-48BE-AFB2-73BA8507C812}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B79A633-EDF9-4F5A-BF16-D8D56D752326}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2657,28 +2681,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39840C9-3BE1-48BE-AFB2-73BA8507C812}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{119CBA1E-5BAE-4F73-AED9-DF6E59155C4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d3517456-5d6c-4611-b3b6-6d7825f7251d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>